--- a/project/age_most_region_notmerged.xlsx
+++ b/project/age_most_region_notmerged.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>779.5268686868687</v>
+        <v>17150</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>773.3937037037037</v>
+        <v>13922</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>837.2595726495726</v>
+        <v>10885</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>914.6457222222223</v>
+        <v>18293</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1018.141005291005</v>
+        <v>21381</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1086.683407407407</v>
+        <v>16301</v>
       </c>
     </row>
     <row r="8">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>873.6252592592593</v>
+        <v>13105</v>
       </c>
     </row>
     <row r="9">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>774.0974444444445</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="10">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1101.552807017544</v>
+        <v>20930</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>869.3078571428571</v>
+        <v>12171</v>
       </c>
     </row>
     <row r="12">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1224.845317460318</v>
+        <v>17148</v>
       </c>
     </row>
     <row r="13">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1089.746666666667</v>
+        <v>16347</v>
       </c>
     </row>
     <row r="14">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>956.5147916666667</v>
+        <v>15305</v>
       </c>
     </row>
     <row r="15">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1182.482857142857</v>
+        <v>16555</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>750.6901234567902</v>
+        <v>13513</v>
       </c>
     </row>
     <row r="17">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>636.0090196078431</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1055.387833333333</v>
+        <v>21108</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>764.0981069958848</v>
+        <v>20631</v>
       </c>
     </row>
     <row r="20">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>837.2483333333334</v>
+        <v>15071</v>
       </c>
     </row>
     <row r="21">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>682.7888271604938</v>
+        <v>12291</v>
       </c>
     </row>
     <row r="22">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>493.6783333333333</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="23">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>938.84375</v>
+        <v>15022</v>
       </c>
     </row>
     <row r="24">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>434.062614379085</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="25">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>320.3121481481481</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="26">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>871.7896527777779</v>
+        <v>13949</v>
       </c>
     </row>
     <row r="27">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1021.115808080808</v>
+        <v>22465</v>
       </c>
     </row>
     <row r="28">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>871.419012345679</v>
+        <v>15686</v>
       </c>
     </row>
     <row r="29">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>788.6528205128205</v>
+        <v>10253</v>
       </c>
     </row>
     <row r="30">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1127.611333333333</v>
+        <v>22553</v>
       </c>
     </row>
     <row r="31">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1368.103544973545</v>
+        <v>28731</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1179.813703703704</v>
+        <v>17698</v>
       </c>
     </row>
     <row r="33">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1100.049333333333</v>
+        <v>16501</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>923.0184444444445</v>
+        <v>9231</v>
       </c>
     </row>
     <row r="35">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>905.46783625731</v>
+        <v>17204</v>
       </c>
     </row>
     <row r="36">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>789.5484920634921</v>
+        <v>11054</v>
       </c>
     </row>
     <row r="37">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1038.350476190476</v>
+        <v>14537</v>
       </c>
     </row>
     <row r="38">
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1228.916222222222</v>
+        <v>18434</v>
       </c>
     </row>
     <row r="39">
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1115.215277777778</v>
+        <v>17844</v>
       </c>
     </row>
     <row r="40">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>940.3000793650793</v>
+        <v>13165</v>
       </c>
     </row>
     <row r="41">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>880.3121604938272</v>
+        <v>15846</v>
       </c>
     </row>
     <row r="42">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>699.1243790849674</v>
+        <v>11886</v>
       </c>
     </row>
     <row r="43">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>855.3361111111111</v>
+        <v>17107</v>
       </c>
     </row>
     <row r="44">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>923.0652263374486</v>
+        <v>24923</v>
       </c>
     </row>
     <row r="45">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>805.8682716049383</v>
+        <v>14506</v>
       </c>
     </row>
     <row r="46">
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>967.0682716049382</v>
+        <v>17408</v>
       </c>
     </row>
     <row r="47">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>553.5680555555556</v>
+        <v>8858</v>
       </c>
     </row>
     <row r="48">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1016.805069444444</v>
+        <v>16269</v>
       </c>
     </row>
     <row r="49">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>407.0266013071895</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="50">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>355.6300740740741</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="51">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>923.9069444444444</v>
+        <v>14783</v>
       </c>
     </row>
     <row r="52">
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1223.078939393939</v>
+        <v>26908</v>
       </c>
     </row>
     <row r="53">
@@ -1544,7 +1544,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1008.554197530864</v>
+        <v>18154</v>
       </c>
     </row>
     <row r="54">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>893.6363247863247</v>
+        <v>11618</v>
       </c>
     </row>
     <row r="55">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1336.994611111111</v>
+        <v>26740</v>
       </c>
     </row>
     <row r="56">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1214.789047619048</v>
+        <v>25511</v>
       </c>
     </row>
     <row r="57">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1164.790592592593</v>
+        <v>17472</v>
       </c>
     </row>
     <row r="58">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1328.637925925926</v>
+        <v>19930</v>
       </c>
     </row>
     <row r="59">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>956.4338888888889</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="60">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1038.789122807018</v>
+        <v>19737</v>
       </c>
     </row>
     <row r="61">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>859.353492063492</v>
+        <v>12031</v>
       </c>
     </row>
     <row r="62">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1018.530714285714</v>
+        <v>14260</v>
       </c>
     </row>
     <row r="63">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1255.628518518519</v>
+        <v>18835</v>
       </c>
     </row>
     <row r="64">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1216.956527777778</v>
+        <v>19472</v>
       </c>
     </row>
     <row r="65">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>851.0765873015872</v>
+        <v>11916</v>
       </c>
     </row>
     <row r="66">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1066.997962962963</v>
+        <v>19206</v>
       </c>
     </row>
     <row r="67">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>779.381568627451</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="68">
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>867.5928333333333</v>
+        <v>17352</v>
       </c>
     </row>
     <row r="69">
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1105.560205761317</v>
+        <v>29851</v>
       </c>
     </row>
     <row r="70">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>916.6876543209876</v>
+        <v>16501</v>
       </c>
     </row>
     <row r="71">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1038.14012345679</v>
+        <v>18687</v>
       </c>
     </row>
     <row r="72">
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>644.9375694444444</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="73">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1206.677847222222</v>
+        <v>19307</v>
       </c>
     </row>
     <row r="74">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>350.7181045751634</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="75">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>382.5144444444445</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="76">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1019.398472222222</v>
+        <v>16311</v>
       </c>
     </row>
     <row r="77">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1087.290909090909</v>
+        <v>23921</v>
       </c>
     </row>
     <row r="78">
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>990.5987037037037</v>
+        <v>17831</v>
       </c>
     </row>
     <row r="79">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>887.4349572649572</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="80">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1227.053388888889</v>
+        <v>24542</v>
       </c>
     </row>
     <row r="81">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>942.7828571428571</v>
+        <v>19799</v>
       </c>
     </row>
     <row r="82">
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>934.9254074074074</v>
+        <v>14024</v>
       </c>
     </row>
     <row r="83">
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1230.292</v>
+        <v>18455</v>
       </c>
     </row>
     <row r="84">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>853.9933333333332</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="85">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1085.788070175439</v>
+        <v>20630</v>
       </c>
     </row>
     <row r="86">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>849.5282539682539</v>
+        <v>11894</v>
       </c>
     </row>
     <row r="87">
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>942.3834126984127</v>
+        <v>13194</v>
       </c>
     </row>
     <row r="88">
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1097.105703703704</v>
+        <v>16457</v>
       </c>
     </row>
     <row r="89">
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1075.946666666667</v>
+        <v>17216</v>
       </c>
     </row>
     <row r="90">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>782.1176984126985</v>
+        <v>10950</v>
       </c>
     </row>
     <row r="91">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1072.195679012346</v>
+        <v>19300</v>
       </c>
     </row>
     <row r="92">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>706.7736601307189</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="93">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>867.9190000000001</v>
+        <v>17359</v>
       </c>
     </row>
     <row r="94">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1041.737407407407</v>
+        <v>28127</v>
       </c>
     </row>
     <row r="95">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>949.0944444444443</v>
+        <v>17084</v>
       </c>
     </row>
     <row r="96">
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>907.0140740740741</v>
+        <v>16327</v>
       </c>
     </row>
     <row r="97">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>599.7117361111111</v>
+        <v>9596</v>
       </c>
     </row>
     <row r="98">
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1203.457777777778</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="99">
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>310.7479738562092</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="100">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>340.0224444444444</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="101">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>923.2545138888888</v>
+        <v>14773</v>
       </c>
     </row>
     <row r="102">
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1162.080656565657</v>
+        <v>25566</v>
       </c>
     </row>
     <row r="103">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1026.130740740741</v>
+        <v>18471</v>
       </c>
     </row>
     <row r="104">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>995.3869230769232</v>
+        <v>12941</v>
       </c>
     </row>
     <row r="105">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1182.670222222222</v>
+        <v>23654</v>
       </c>
     </row>
     <row r="106">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>877.5296296296297</v>
+        <v>18429</v>
       </c>
     </row>
     <row r="107">
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>992.8925925925926</v>
+        <v>14894</v>
       </c>
     </row>
     <row r="108">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1168.838148148148</v>
+        <v>17533</v>
       </c>
     </row>
     <row r="109">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>951.1824444444444</v>
+        <v>9512</v>
       </c>
     </row>
     <row r="110">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1376.284853801169</v>
+        <v>26150</v>
       </c>
     </row>
     <row r="111">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>999.1673809523809</v>
+        <v>13989</v>
       </c>
     </row>
     <row r="112">
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>959.5552380952381</v>
+        <v>13434</v>
       </c>
     </row>
     <row r="113">
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1044.356518518518</v>
+        <v>15666</v>
       </c>
     </row>
     <row r="114">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1068.501041666667</v>
+        <v>17097</v>
       </c>
     </row>
     <row r="115">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>897.6747619047619</v>
+        <v>12568</v>
       </c>
     </row>
     <row r="116">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1144.63</v>
+        <v>20604</v>
       </c>
     </row>
     <row r="117">
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>717.095816993464</v>
+        <v>12191</v>
       </c>
     </row>
     <row r="118">
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>974.8437222222221</v>
+        <v>19497</v>
       </c>
     </row>
     <row r="119">
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1112.948930041152</v>
+        <v>30050</v>
       </c>
     </row>
     <row r="120">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1235.411975308642</v>
+        <v>22238</v>
       </c>
     </row>
     <row r="121">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>881.9358024691359</v>
+        <v>15875</v>
       </c>
     </row>
     <row r="122">
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>613.254861111111</v>
+        <v>9813</v>
       </c>
     </row>
     <row r="123">
@@ -3014,7 +3014,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1294.327361111111</v>
+        <v>20710</v>
       </c>
     </row>
     <row r="124">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>381.0020261437908</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="125">
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>356.0482222222223</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="126">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>967.4954166666666</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="127">
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1200.083737373737</v>
+        <v>26402</v>
       </c>
     </row>
     <row r="128">
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1060.026790123457</v>
+        <v>19081</v>
       </c>
     </row>
     <row r="129">
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1033.013504273504</v>
+        <v>13430</v>
       </c>
     </row>
     <row r="130">
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1130.293555555555</v>
+        <v>22606</v>
       </c>
     </row>
     <row r="131">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>860.3031746031745</v>
+        <v>18067</v>
       </c>
     </row>
     <row r="132">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1042.987777777778</v>
+        <v>15645</v>
       </c>
     </row>
     <row r="133">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1170.039037037037</v>
+        <v>17551</v>
       </c>
     </row>
     <row r="134">
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1108.244111111111</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="135">
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1409.53649122807</v>
+        <v>26782</v>
       </c>
     </row>
     <row r="136">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1080.828095238095</v>
+        <v>15132</v>
       </c>
     </row>
     <row r="137">
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>970.803253968254</v>
+        <v>13592</v>
       </c>
     </row>
     <row r="138">
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1022.386444444445</v>
+        <v>15336</v>
       </c>
     </row>
     <row r="139">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>932.9160416666667</v>
+        <v>14927</v>
       </c>
     </row>
     <row r="140">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>908.500238095238</v>
+        <v>12720</v>
       </c>
     </row>
     <row r="141">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1037.826790123457</v>
+        <v>18681</v>
       </c>
     </row>
     <row r="142">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>696.5575816993464</v>
+        <v>11842</v>
       </c>
     </row>
     <row r="143">
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>910.3285000000001</v>
+        <v>18207</v>
       </c>
     </row>
     <row r="144">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1061.318806584362</v>
+        <v>28656</v>
       </c>
     </row>
     <row r="145">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1304.054135802469</v>
+        <v>23473</v>
       </c>
     </row>
     <row r="146">
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>917.1494444444444</v>
+        <v>16509</v>
       </c>
     </row>
     <row r="147">
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>585.322986111111</v>
+        <v>9366</v>
       </c>
     </row>
     <row r="148">
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1260.181597222222</v>
+        <v>20163</v>
       </c>
     </row>
     <row r="149">
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>406.0562091503268</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="150">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>348.2294814814815</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="151">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1075.312013888889</v>
+        <v>17205</v>
       </c>
     </row>
     <row r="152">
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>999.8259090909091</v>
+        <v>21997</v>
       </c>
     </row>
     <row r="153">
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1119.486666666667</v>
+        <v>20151</v>
       </c>
     </row>
     <row r="154">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1049.248034188034</v>
+        <v>13641</v>
       </c>
     </row>
     <row r="155">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1198.6645</v>
+        <v>23974</v>
       </c>
     </row>
     <row r="156">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>923.424126984127</v>
+        <v>19392</v>
       </c>
     </row>
     <row r="157">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1028.998222222222</v>
+        <v>15435</v>
       </c>
     </row>
     <row r="158">
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1259.404518518518</v>
+        <v>18892</v>
       </c>
     </row>
     <row r="159">
@@ -3770,7 +3770,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1194.705444444445</v>
+        <v>11948</v>
       </c>
     </row>
     <row r="160">
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1259.936783625731</v>
+        <v>23939</v>
       </c>
     </row>
     <row r="161">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1106.011428571428</v>
+        <v>15485</v>
       </c>
     </row>
     <row r="162">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1003.62626984127</v>
+        <v>14051</v>
       </c>
     </row>
     <row r="163">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1074.222148148148</v>
+        <v>16114</v>
       </c>
     </row>
     <row r="164">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>895.5990277777778</v>
+        <v>14330</v>
       </c>
     </row>
     <row r="165">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>884.3010317460316</v>
+        <v>12381</v>
       </c>
     </row>
     <row r="166">
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>901.3854320987655</v>
+        <v>16225</v>
       </c>
     </row>
     <row r="167">
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>716.5038562091503</v>
+        <v>12181</v>
       </c>
     </row>
     <row r="168">
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>891.5173333333333</v>
+        <v>17831</v>
       </c>
     </row>
     <row r="169">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1033.577283950617</v>
+        <v>27907</v>
       </c>
     </row>
     <row r="170">
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1155.670987654321</v>
+        <v>20803</v>
       </c>
     </row>
     <row r="171">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1000.303209876543</v>
+        <v>18006</v>
       </c>
     </row>
     <row r="172">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>580.2863194444444</v>
+        <v>9285</v>
       </c>
     </row>
     <row r="173">
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1237.296875</v>
+        <v>19797</v>
       </c>
     </row>
     <row r="174">
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>404.5021568627451</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="175">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>376.482</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="176">
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1147.552916666667</v>
+        <v>18361</v>
       </c>
     </row>
     <row r="177">
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>930.6975757575757</v>
+        <v>20476</v>
       </c>
     </row>
     <row r="178">
@@ -4169,7 +4169,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1138.640679012346</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="179">
@@ -4190,7 +4190,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1088.849658119658</v>
+        <v>14156</v>
       </c>
     </row>
     <row r="180">
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1235.552777777778</v>
+        <v>24712</v>
       </c>
     </row>
     <row r="181">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>964.6363492063491</v>
+        <v>20258</v>
       </c>
     </row>
     <row r="182">
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>983.2252592592592</v>
+        <v>14749</v>
       </c>
     </row>
     <row r="183">
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1310.625037037037</v>
+        <v>19660</v>
       </c>
     </row>
     <row r="184">
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1138.756666666667</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="185">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1194.993742690059</v>
+        <v>22705</v>
       </c>
     </row>
     <row r="186">
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1123.133492063492</v>
+        <v>15724</v>
       </c>
     </row>
     <row r="187">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1049.369841269841</v>
+        <v>14692</v>
       </c>
     </row>
     <row r="188">
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1109.920962962963</v>
+        <v>16649</v>
       </c>
     </row>
     <row r="189">
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>858.4029861111111</v>
+        <v>13735</v>
       </c>
     </row>
     <row r="190">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>862.3187301587302</v>
+        <v>12073</v>
       </c>
     </row>
     <row r="191">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>878.9090123456791</v>
+        <v>15821</v>
       </c>
     </row>
     <row r="192">
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>690.370522875817</v>
+        <v>11737</v>
       </c>
     </row>
     <row r="193">
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>897.8642222222222</v>
+        <v>17958</v>
       </c>
     </row>
     <row r="194">
@@ -4505,7 +4505,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1021.911316872428</v>
+        <v>27592</v>
       </c>
     </row>
     <row r="195">
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1041.592037037037</v>
+        <v>18749</v>
       </c>
     </row>
     <row r="196">
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>997.1428395061729</v>
+        <v>17949</v>
       </c>
     </row>
     <row r="197">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>561.9035416666667</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="198">
@@ -4589,7 +4589,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1256.646458333333</v>
+        <v>20107</v>
       </c>
     </row>
     <row r="199">
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>378.6004575163399</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="200">
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>381.9191851851851</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="201">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1126.432777777778</v>
+        <v>18023</v>
       </c>
     </row>
     <row r="202">
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>734.790505050505</v>
+        <v>16166</v>
       </c>
     </row>
     <row r="203">
@@ -4694,7 +4694,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>821.7165432098765</v>
+        <v>14791</v>
       </c>
     </row>
     <row r="204">
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>873.8003418803419</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="205">
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>909.7406111111111</v>
+        <v>18195</v>
       </c>
     </row>
     <row r="206">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>779.2569312169312</v>
+        <v>16365</v>
       </c>
     </row>
     <row r="207">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>699.4622222222222</v>
+        <v>10492</v>
       </c>
     </row>
     <row r="208">
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1003.156740740741</v>
+        <v>15048</v>
       </c>
     </row>
     <row r="209">
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>852.4146666666668</v>
+        <v>8525</v>
       </c>
     </row>
     <row r="210">
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>845.5088304093567</v>
+        <v>16065</v>
       </c>
     </row>
     <row r="211">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>787.6753968253969</v>
+        <v>11028</v>
       </c>
     </row>
     <row r="212">
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>823.8438095238096</v>
+        <v>11534</v>
       </c>
     </row>
     <row r="213">
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>840.6511851851852</v>
+        <v>12610</v>
       </c>
     </row>
     <row r="214">
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>639.2098611111111</v>
+        <v>10228</v>
       </c>
     </row>
     <row r="215">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>654.4203968253968</v>
+        <v>9162</v>
       </c>
     </row>
     <row r="216">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>690.0952469135802</v>
+        <v>12422</v>
       </c>
     </row>
     <row r="217">
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>506.2381699346406</v>
+        <v>8607</v>
       </c>
     </row>
     <row r="218">
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>673.2944444444445</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="219">
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>759.2873251028807</v>
+        <v>20501</v>
       </c>
     </row>
     <row r="220">
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>743.1441358024691</v>
+        <v>13377</v>
       </c>
     </row>
     <row r="221">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>743.443024691358</v>
+        <v>13382</v>
       </c>
     </row>
     <row r="222">
@@ -5093,7 +5093,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>426.3219444444445</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="223">
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>954.7975694444444</v>
+        <v>15277</v>
       </c>
     </row>
     <row r="224">
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>283.1852287581699</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="225">
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>294.6422222222222</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="226">
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>827.2993055555556</v>
+        <v>13237</v>
       </c>
     </row>
     <row r="227">
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>556.905606060606</v>
+        <v>12252</v>
       </c>
     </row>
     <row r="228">
@@ -5219,7 +5219,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>588.6926543209877</v>
+        <v>10597</v>
       </c>
     </row>
     <row r="229">
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>766.1717948717949</v>
+        <v>9961</v>
       </c>
     </row>
     <row r="230">
@@ -5261,7 +5261,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>656.1580555555555</v>
+        <v>13124</v>
       </c>
     </row>
     <row r="231">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>623.5337566137566</v>
+        <v>13095</v>
       </c>
     </row>
     <row r="232">
@@ -5303,7 +5303,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>509.6041481481481</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="233">
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>726.0801481481482</v>
+        <v>10892</v>
       </c>
     </row>
     <row r="234">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>611.1316666666667</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="235">
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>644.2012865497076</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="236">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>606.4830158730159</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="237">
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>662.5596031746031</v>
+        <v>9276</v>
       </c>
     </row>
     <row r="238">
@@ -5429,7 +5429,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>688.994962962963</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="239">
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>539.9128472222222</v>
+        <v>8639</v>
       </c>
     </row>
     <row r="240">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>576.7454761904761</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="241">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>541.390987654321</v>
+        <v>9746</v>
       </c>
     </row>
     <row r="242">
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>402.298954248366</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="243">
@@ -5534,7 +5534,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>568.5986111111112</v>
+        <v>11372</v>
       </c>
     </row>
     <row r="244">
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>525.9637860082304</v>
+        <v>14202</v>
       </c>
     </row>
     <row r="245">
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>529.9248148148149</v>
+        <v>9539</v>
       </c>
     </row>
     <row r="246">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>547.4339506172839</v>
+        <v>9854</v>
       </c>
     </row>
     <row r="247">
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>357.0647222222222</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="248">
@@ -5639,7 +5639,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>793.5145138888888</v>
+        <v>12697</v>
       </c>
     </row>
     <row r="249">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>234.6892156862745</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="250">
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>231.2026666666667</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="251">
@@ -5702,7 +5702,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>636.6495833333333</v>
+        <v>10187</v>
       </c>
     </row>
     <row r="252">
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>381.5807575757576</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="253">
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>424.9311111111111</v>
+        <v>7649</v>
       </c>
     </row>
     <row r="254">
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>537.7064957264957</v>
+        <v>6991</v>
       </c>
     </row>
     <row r="255">
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>491.4012777777778</v>
+        <v>9829</v>
       </c>
     </row>
     <row r="256">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>415.7726455026455</v>
+        <v>8732</v>
       </c>
     </row>
     <row r="257">
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>369.2275555555556</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="258">
@@ -5849,7 +5849,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>499.8446666666667</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="259">
@@ -5870,7 +5870,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>438.6256666666666</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="260">
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>521.4480701754386</v>
+        <v>9908</v>
       </c>
     </row>
     <row r="261">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>482.4619841269841</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="262">
@@ -5933,7 +5933,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>497.2837301587302</v>
+        <v>6962</v>
       </c>
     </row>
     <row r="263">
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>483.9061481481481</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="264">
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>420.5313194444445</v>
+        <v>6729</v>
       </c>
     </row>
     <row r="265">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>442.6549206349206</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="266">
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>359.6317283950618</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="267">
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>305.7027450980392</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="268">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>422.6108333333333</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="269">
@@ -6080,7 +6080,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>385.660658436214</v>
+        <v>10413</v>
       </c>
     </row>
     <row r="270">
@@ -6101,7 +6101,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>418.9306790123457</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="271">
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>392.7528395061728</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="272">
@@ -6143,7 +6143,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>286.0563194444445</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="273">
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>593.5544444444445</v>
+        <v>9497</v>
       </c>
     </row>
     <row r="274">
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>184.5121568627451</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="275">
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>178.7619259259259</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="276">
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>469.8369444444445</v>
+        <v>7518</v>
       </c>
     </row>
     <row r="277">
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>498.6453030303031</v>
+        <v>10971</v>
       </c>
     </row>
     <row r="278">
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>537.2168518518519</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="279">
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>907.1464102564103</v>
+        <v>11793</v>
       </c>
     </row>
     <row r="280">
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>710.0393888888889</v>
+        <v>14201</v>
       </c>
     </row>
     <row r="281">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>620.3945502645503</v>
+        <v>13029</v>
       </c>
     </row>
     <row r="282">
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>560.4884444444444</v>
+        <v>8408</v>
       </c>
     </row>
     <row r="283">
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>716.136</v>
+        <v>10743</v>
       </c>
     </row>
     <row r="284">
@@ -6395,7 +6395,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>647.7287777777777</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="285">
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>891.4936257309942</v>
+        <v>16939</v>
       </c>
     </row>
     <row r="286">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>790.865634920635</v>
+        <v>11073</v>
       </c>
     </row>
     <row r="287">
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>835.1396031746032</v>
+        <v>11692</v>
       </c>
     </row>
     <row r="288">
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>755.3436296296296</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="289">
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>708.4750694444444</v>
+        <v>11336</v>
       </c>
     </row>
     <row r="290">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>805.5139682539682</v>
+        <v>11278</v>
       </c>
     </row>
     <row r="291">
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>502.6389506172839</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="292">
@@ -6563,7 +6563,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>513.0093464052287</v>
+        <v>8722</v>
       </c>
     </row>
     <row r="293">
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>720.6225555555556</v>
+        <v>14413</v>
       </c>
     </row>
     <row r="294">
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>477.8637860082304</v>
+        <v>12903</v>
       </c>
     </row>
     <row r="295">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>572.2392592592593</v>
+        <v>10301</v>
       </c>
     </row>
     <row r="296">
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>603.6303086419753</v>
+        <v>10866</v>
       </c>
     </row>
     <row r="297">
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>510.3045138888889</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="298">
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>957.4818055555556</v>
+        <v>15320</v>
       </c>
     </row>
     <row r="299">
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>341.3313071895425</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="300">
@@ -6731,7 +6731,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>297.2820740740741</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="301">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>722.0620138888888</v>
+        <v>11553</v>
       </c>
     </row>
     <row r="302">
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>781.4936868686868</v>
+        <v>17193</v>
       </c>
     </row>
     <row r="303">
@@ -6794,7 +6794,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>848.0182098765433</v>
+        <v>15265</v>
       </c>
     </row>
     <row r="304">
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>823.2152991452991</v>
+        <v>10702</v>
       </c>
     </row>
     <row r="305">
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>921.3817777777778</v>
+        <v>18428</v>
       </c>
     </row>
     <row r="306">
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>976.8498941798942</v>
+        <v>20514</v>
       </c>
     </row>
     <row r="307">
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>1014.837481481482</v>
+        <v>15223</v>
       </c>
     </row>
     <row r="308">
@@ -6899,7 +6899,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>884.8428148148148</v>
+        <v>13273</v>
       </c>
     </row>
     <row r="309">
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>830.763</v>
+        <v>8308</v>
       </c>
     </row>
     <row r="310">
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1171.292222222222</v>
+        <v>22255</v>
       </c>
     </row>
     <row r="311">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>856.0769047619048</v>
+        <v>11986</v>
       </c>
     </row>
     <row r="312">
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1143.39746031746</v>
+        <v>16008</v>
       </c>
     </row>
     <row r="313">
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1096.090666666666</v>
+        <v>16442</v>
       </c>
     </row>
     <row r="314">
@@ -7025,7 +7025,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>822.149375</v>
+        <v>13155</v>
       </c>
     </row>
     <row r="315">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>940.9659523809524</v>
+        <v>13174</v>
       </c>
     </row>
     <row r="316">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>705.6046296296296</v>
+        <v>12701</v>
       </c>
     </row>
     <row r="317">
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>677.5488235294117</v>
+        <v>11519</v>
       </c>
     </row>
     <row r="318">
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>917.7643333333333</v>
+        <v>18356</v>
       </c>
     </row>
     <row r="319">
@@ -7130,7 +7130,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>789.0317283950617</v>
+        <v>21304</v>
       </c>
     </row>
     <row r="320">
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>921.8144444444445</v>
+        <v>16593</v>
       </c>
     </row>
     <row r="321">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>656.011975308642</v>
+        <v>11809</v>
       </c>
     </row>
     <row r="322">
@@ -7193,7 +7193,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>431.0976388888889</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="323">
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>954.5045138888888</v>
+        <v>15273</v>
       </c>
     </row>
     <row r="324">
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>402.4752287581699</v>
+        <v>6843</v>
       </c>
     </row>
     <row r="325">
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>310.0014814814814</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="326">
@@ -7277,7 +7277,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>884.9235416666667</v>
+        <v>14159</v>
       </c>
     </row>
     <row r="327">
@@ -7298,7 +7298,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>844.1507575757576</v>
+        <v>18572</v>
       </c>
     </row>
     <row r="328">
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>864.0434567901235</v>
+        <v>15553</v>
       </c>
     </row>
     <row r="329">
@@ -7340,7 +7340,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>801.4178632478632</v>
+        <v>10419</v>
       </c>
     </row>
     <row r="330">
@@ -7361,7 +7361,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1013.822444444444</v>
+        <v>20277</v>
       </c>
     </row>
     <row r="331">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>1460.272222222222</v>
+        <v>30666</v>
       </c>
     </row>
     <row r="332">
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1132.384370370371</v>
+        <v>16986</v>
       </c>
     </row>
     <row r="333">
@@ -7424,7 +7424,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1060.809407407407</v>
+        <v>15913</v>
       </c>
     </row>
     <row r="334">
@@ -7445,7 +7445,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1058.984111111111</v>
+        <v>10590</v>
       </c>
     </row>
     <row r="335">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>935.5868421052631</v>
+        <v>17777</v>
       </c>
     </row>
     <row r="336">
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>799.7961111111111</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="337">
@@ -7508,7 +7508,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>1189.987063492063</v>
+        <v>16660</v>
       </c>
     </row>
     <row r="338">
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1246.817555555556</v>
+        <v>18703</v>
       </c>
     </row>
     <row r="339">
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>963.7148611111111</v>
+        <v>15420</v>
       </c>
     </row>
     <row r="340">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>924.8619841269841</v>
+        <v>12949</v>
       </c>
     </row>
     <row r="341">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>743.4614197530864</v>
+        <v>13383</v>
       </c>
     </row>
     <row r="342">
@@ -7613,7 +7613,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>724.4946405228759</v>
+        <v>12317</v>
       </c>
     </row>
     <row r="343">
@@ -7634,7 +7634,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>872.7813333333335</v>
+        <v>17456</v>
       </c>
     </row>
     <row r="344">
@@ -7655,7 +7655,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>835.6680658436214</v>
+        <v>22564</v>
       </c>
     </row>
     <row r="345">
@@ -7676,7 +7676,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>775.9712345679012</v>
+        <v>13968</v>
       </c>
     </row>
     <row r="346">
@@ -7697,7 +7697,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>910.7288271604939</v>
+        <v>16394</v>
       </c>
     </row>
     <row r="347">
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>532.3914583333333</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="348">
@@ -7739,7 +7739,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>941.01625</v>
+        <v>15057</v>
       </c>
     </row>
     <row r="349">
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>437.1441176470589</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="350">
@@ -7781,7 +7781,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>365.3557037037037</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="351">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>901.7679166666667</v>
+        <v>14429</v>
       </c>
     </row>
     <row r="352">
@@ -7823,7 +7823,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1046.306515151515</v>
+        <v>23019</v>
       </c>
     </row>
     <row r="353">
@@ -7844,7 +7844,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1032.144938271605</v>
+        <v>18579</v>
       </c>
     </row>
     <row r="354">
@@ -7865,7 +7865,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>977.2976068376068</v>
+        <v>12705</v>
       </c>
     </row>
     <row r="355">
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1366.844722222222</v>
+        <v>27337</v>
       </c>
     </row>
     <row r="356">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1459.589788359788</v>
+        <v>30652</v>
       </c>
     </row>
     <row r="357">
@@ -7928,7 +7928,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1179.382</v>
+        <v>17691</v>
       </c>
     </row>
     <row r="358">
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1380.245407407407</v>
+        <v>20704</v>
       </c>
     </row>
     <row r="359">
@@ -7970,7 +7970,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>1169.806222222222</v>
+        <v>11699</v>
       </c>
     </row>
     <row r="360">
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1037.919707602339</v>
+        <v>19721</v>
       </c>
     </row>
     <row r="361">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>900.2279365079365</v>
+        <v>12604</v>
       </c>
     </row>
     <row r="362">
@@ -8033,7 +8033,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1100.396746031746</v>
+        <v>15406</v>
       </c>
     </row>
     <row r="363">
@@ -8054,7 +8054,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1344.594740740741</v>
+        <v>20169</v>
       </c>
     </row>
     <row r="364">
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>1147.236805555556</v>
+        <v>18356</v>
       </c>
     </row>
     <row r="365">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>855.6515079365079</v>
+        <v>11980</v>
       </c>
     </row>
     <row r="366">
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>932.5774074074075</v>
+        <v>16787</v>
       </c>
     </row>
     <row r="367">
@@ -8138,7 +8138,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>777.3954248366013</v>
+        <v>13216</v>
       </c>
     </row>
     <row r="368">
@@ -8159,7 +8159,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>880.2898333333334</v>
+        <v>17606</v>
       </c>
     </row>
     <row r="369">
@@ -8180,7 +8180,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1035.560823045267</v>
+        <v>27961</v>
       </c>
     </row>
     <row r="370">
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>930.8701851851852</v>
+        <v>16756</v>
       </c>
     </row>
     <row r="371">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1124.961358024691</v>
+        <v>20250</v>
       </c>
     </row>
     <row r="372">
@@ -8243,7 +8243,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>656.8763194444444</v>
+        <v>10511</v>
       </c>
     </row>
     <row r="373">
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1204.445486111111</v>
+        <v>19272</v>
       </c>
     </row>
     <row r="374">
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>381.4738562091503</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="375">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>415.383037037037</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="376">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1094.839722222222</v>
+        <v>17518</v>
       </c>
     </row>
     <row r="377">
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>971.1832323232323</v>
+        <v>21367</v>
       </c>
     </row>
     <row r="378">
@@ -8369,7 +8369,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>1008.037407407407</v>
+        <v>18145</v>
       </c>
     </row>
     <row r="379">
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>958.2209401709403</v>
+        <v>12457</v>
       </c>
     </row>
     <row r="380">
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1274.325388888889</v>
+        <v>25487</v>
       </c>
     </row>
     <row r="381">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1132.298994708995</v>
+        <v>23779</v>
       </c>
     </row>
     <row r="382">
@@ -8453,7 +8453,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>982.9161481481481</v>
+        <v>14744</v>
       </c>
     </row>
     <row r="383">
@@ -8474,7 +8474,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1372.977037037037</v>
+        <v>20595</v>
       </c>
     </row>
     <row r="384">
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1037.556</v>
+        <v>10376</v>
       </c>
     </row>
     <row r="385">
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1064.99081871345</v>
+        <v>20235</v>
       </c>
     </row>
     <row r="386">
@@ -8537,7 +8537,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>868.3159523809524</v>
+        <v>12157</v>
       </c>
     </row>
     <row r="387">
@@ -8558,7 +8558,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1018.111349206349</v>
+        <v>14254</v>
       </c>
     </row>
     <row r="388">
@@ -8579,7 +8579,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1139.779925925926</v>
+        <v>17097</v>
       </c>
     </row>
     <row r="389">
@@ -8600,7 +8600,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1040.989930555555</v>
+        <v>16656</v>
       </c>
     </row>
     <row r="390">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>800.1207142857144</v>
+        <v>11202</v>
       </c>
     </row>
     <row r="391">
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>930.5540740740742</v>
+        <v>16750</v>
       </c>
     </row>
     <row r="392">
@@ -8663,7 +8663,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>754.2473202614378</v>
+        <v>12823</v>
       </c>
     </row>
     <row r="393">
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>858.325</v>
+        <v>17167</v>
       </c>
     </row>
     <row r="394">
@@ -8705,7 +8705,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>995.887695473251</v>
+        <v>26889</v>
       </c>
     </row>
     <row r="395">
@@ -8726,7 +8726,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>902.454012345679</v>
+        <v>16245</v>
       </c>
     </row>
     <row r="396">
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>994.5747530864197</v>
+        <v>17903</v>
       </c>
     </row>
     <row r="397">
@@ -8768,7 +8768,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>596.8284027777777</v>
+        <v>9550</v>
       </c>
     </row>
     <row r="398">
@@ -8789,7 +8789,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1226.8375</v>
+        <v>19630</v>
       </c>
     </row>
     <row r="399">
@@ -8810,7 +8810,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>324.3167320261438</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="400">
@@ -8831,7 +8831,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>379.6171851851852</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="401">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1018.399236111111</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="402">
@@ -8873,7 +8873,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1003.23797979798</v>
+        <v>22072</v>
       </c>
     </row>
     <row r="403">
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1033.42512345679</v>
+        <v>18602</v>
       </c>
     </row>
     <row r="404">
@@ -8915,7 +8915,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1051.254358974359</v>
+        <v>13667</v>
       </c>
     </row>
     <row r="405">
@@ -8936,7 +8936,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1217.153333333333</v>
+        <v>24344</v>
       </c>
     </row>
     <row r="406">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1062.63835978836</v>
+        <v>22316</v>
       </c>
     </row>
     <row r="407">
@@ -8978,7 +8978,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>989.6937777777778</v>
+        <v>14846</v>
       </c>
     </row>
     <row r="408">
@@ -8999,7 +8999,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>1346.523185185185</v>
+        <v>20198</v>
       </c>
     </row>
     <row r="409">
@@ -9020,7 +9020,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1082.647111111111</v>
+        <v>10827</v>
       </c>
     </row>
     <row r="410">
@@ -9041,7 +9041,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1245.338011695906</v>
+        <v>23662</v>
       </c>
     </row>
     <row r="411">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>964.4680952380952</v>
+        <v>13503</v>
       </c>
     </row>
     <row r="412">
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>1064.66380952381</v>
+        <v>14906</v>
       </c>
     </row>
     <row r="413">
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>1119.290814814815</v>
+        <v>16790</v>
       </c>
     </row>
     <row r="414">
@@ -9125,7 +9125,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>1086.195555555556</v>
+        <v>17380</v>
       </c>
     </row>
     <row r="415">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>895.686746031746</v>
+        <v>12540</v>
       </c>
     </row>
     <row r="416">
@@ -9167,7 +9167,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1040.610185185185</v>
+        <v>18731</v>
       </c>
     </row>
     <row r="417">
@@ -9188,7 +9188,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>761.1900000000001</v>
+        <v>12941</v>
       </c>
     </row>
     <row r="418">
@@ -9209,7 +9209,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1003.171944444445</v>
+        <v>20064</v>
       </c>
     </row>
     <row r="419">
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1060.903621399177</v>
+        <v>28645</v>
       </c>
     </row>
     <row r="420">
@@ -9251,7 +9251,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>1088.684938271605</v>
+        <v>19597</v>
       </c>
     </row>
     <row r="421">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>1006.02987654321</v>
+        <v>18109</v>
       </c>
     </row>
     <row r="422">
@@ -9293,7 +9293,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>636.9765277777777</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="423">
@@ -9314,7 +9314,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>1319.964305555555</v>
+        <v>21120</v>
       </c>
     </row>
     <row r="424">
@@ -9335,7 +9335,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>379.9628758169935</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="425">
@@ -9356,7 +9356,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>396.9225185185185</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="426">
@@ -9377,7 +9377,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>1022.185625</v>
+        <v>16355</v>
       </c>
     </row>
     <row r="427">
@@ -9398,7 +9398,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>1089.630858585859</v>
+        <v>23972</v>
       </c>
     </row>
     <row r="428">
@@ -9419,7 +9419,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>1012.941975308642</v>
+        <v>18233</v>
       </c>
     </row>
     <row r="429">
@@ -9440,7 +9440,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>998.514358974359</v>
+        <v>12981</v>
       </c>
     </row>
     <row r="430">
@@ -9461,7 +9461,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1068.378888888889</v>
+        <v>21368</v>
       </c>
     </row>
     <row r="431">
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>892.3653968253968</v>
+        <v>18740</v>
       </c>
     </row>
     <row r="432">
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>987.9525185185184</v>
+        <v>14820</v>
       </c>
     </row>
     <row r="433">
@@ -9524,7 +9524,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>1214.20237037037</v>
+        <v>18214</v>
       </c>
     </row>
     <row r="434">
@@ -9545,7 +9545,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>1138.834333333333</v>
+        <v>11389</v>
       </c>
     </row>
     <row r="435">
@@ -9566,7 +9566,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1321.308596491228</v>
+        <v>25105</v>
       </c>
     </row>
     <row r="436">
@@ -9587,7 +9587,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>999.4536507936508</v>
+        <v>13993</v>
       </c>
     </row>
     <row r="437">
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>992.3892857142857</v>
+        <v>13894</v>
       </c>
     </row>
     <row r="438">
@@ -9629,7 +9629,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>988.1094814814815</v>
+        <v>14822</v>
       </c>
     </row>
     <row r="439">
@@ -9650,7 +9650,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>923.9187499999999</v>
+        <v>14783</v>
       </c>
     </row>
     <row r="440">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>880.9996031746032</v>
+        <v>12334</v>
       </c>
     </row>
     <row r="441">
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>1006.841481481482</v>
+        <v>18124</v>
       </c>
     </row>
     <row r="442">
@@ -9713,7 +9713,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>712.0635294117648</v>
+        <v>12106</v>
       </c>
     </row>
     <row r="443">
@@ -9734,7 +9734,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>916.9424444444445</v>
+        <v>18339</v>
       </c>
     </row>
     <row r="444">
@@ -9755,7 +9755,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>1030.909300411523</v>
+        <v>27835</v>
       </c>
     </row>
     <row r="445">
@@ -9776,7 +9776,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1237.151296296296</v>
+        <v>22269</v>
       </c>
     </row>
     <row r="446">
@@ -9797,7 +9797,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>969.476049382716</v>
+        <v>17451</v>
       </c>
     </row>
     <row r="447">
@@ -9818,7 +9818,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>593.1602083333332</v>
+        <v>9491</v>
       </c>
     </row>
     <row r="448">
@@ -9839,7 +9839,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>1205.985486111111</v>
+        <v>19296</v>
       </c>
     </row>
     <row r="449">
@@ -9860,7 +9860,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>385.1957516339869</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="450">
@@ -9881,7 +9881,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>360.406</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="451">
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>1042.945902777778</v>
+        <v>16688</v>
       </c>
     </row>
     <row r="452">
@@ -9923,7 +9923,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>975.9827272727272</v>
+        <v>21472</v>
       </c>
     </row>
     <row r="453">
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>1029.987839506173</v>
+        <v>18540</v>
       </c>
     </row>
     <row r="454">
@@ -9965,7 +9965,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>987.7802564102564</v>
+        <v>12842</v>
       </c>
     </row>
     <row r="455">
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>1080.394777777778</v>
+        <v>21608</v>
       </c>
     </row>
     <row r="456">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>873.0540211640212</v>
+        <v>18335</v>
       </c>
     </row>
     <row r="457">
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>983.1117777777778</v>
+        <v>14747</v>
       </c>
     </row>
     <row r="458">
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>1244.664592592592</v>
+        <v>18670</v>
       </c>
     </row>
     <row r="459">
@@ -10070,7 +10070,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>1231.519888888889</v>
+        <v>12316</v>
       </c>
     </row>
     <row r="460">
@@ -10091,7 +10091,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>1209.244385964912</v>
+        <v>22976</v>
       </c>
     </row>
     <row r="461">
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1000.602619047619</v>
+        <v>14009</v>
       </c>
     </row>
     <row r="462">
@@ -10133,7 +10133,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>988.9827777777778</v>
+        <v>13846</v>
       </c>
     </row>
     <row r="463">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>971.3848148148149</v>
+        <v>14571</v>
       </c>
     </row>
     <row r="464">
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>839.1663888888889</v>
+        <v>13427</v>
       </c>
     </row>
     <row r="465">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>835.8538095238096</v>
+        <v>11702</v>
       </c>
     </row>
     <row r="466">
@@ -10217,7 +10217,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>853.6751234567901</v>
+        <v>15367</v>
       </c>
     </row>
     <row r="467">
@@ -10238,7 +10238,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>714.6425490196078</v>
+        <v>12149</v>
       </c>
     </row>
     <row r="468">
@@ -10259,7 +10259,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>831.0656111111111</v>
+        <v>16622</v>
       </c>
     </row>
     <row r="469">
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>976.1618518518518</v>
+        <v>26357</v>
       </c>
     </row>
     <row r="470">
@@ -10301,7 +10301,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>1168.341049382716</v>
+        <v>21031</v>
       </c>
     </row>
     <row r="471">
@@ -10322,7 +10322,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>1001.702716049383</v>
+        <v>18031</v>
       </c>
     </row>
     <row r="472">
@@ -10343,7 +10343,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>553.0680555555556</v>
+        <v>8850</v>
       </c>
     </row>
     <row r="473">
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1144.065486111111</v>
+        <v>18306</v>
       </c>
     </row>
     <row r="474">
@@ -10385,7 +10385,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>398.4033333333333</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="475">
@@ -10406,7 +10406,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>358.7181481481481</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="476">
@@ -10427,7 +10427,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1104.610208333333</v>
+        <v>17674</v>
       </c>
     </row>
     <row r="477">
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>822.055505050505</v>
+        <v>18086</v>
       </c>
     </row>
     <row r="478">
@@ -10469,7 +10469,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1026.323703703704</v>
+        <v>18474</v>
       </c>
     </row>
     <row r="479">
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>974.6768376068376</v>
+        <v>12671</v>
       </c>
     </row>
     <row r="480">
@@ -10511,7 +10511,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1095.111944444444</v>
+        <v>21903</v>
       </c>
     </row>
     <row r="481">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>845.6216402116402</v>
+        <v>17759</v>
       </c>
     </row>
     <row r="482">
@@ -10553,7 +10553,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>912.396888888889</v>
+        <v>13686</v>
       </c>
     </row>
     <row r="483">
@@ -10574,7 +10574,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>1220.066888888889</v>
+        <v>18302</v>
       </c>
     </row>
     <row r="484">
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1144.103</v>
+        <v>11442</v>
       </c>
     </row>
     <row r="485">
@@ -10616,7 +10616,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1092.929064327485</v>
+        <v>20766</v>
       </c>
     </row>
     <row r="486">
@@ -10637,7 +10637,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1019.650238095238</v>
+        <v>14276</v>
       </c>
     </row>
     <row r="487">
@@ -10658,7 +10658,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>979.2726984126984</v>
+        <v>13710</v>
       </c>
     </row>
     <row r="488">
@@ -10679,7 +10679,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>962.7097037037037</v>
+        <v>14441</v>
       </c>
     </row>
     <row r="489">
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>768.7316666666667</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="490">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>791.3646825396825</v>
+        <v>11080</v>
       </c>
     </row>
     <row r="491">
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>769.8695061728395</v>
+        <v>13858</v>
       </c>
     </row>
     <row r="492">
@@ -10763,7 +10763,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>668.5867973856209</v>
+        <v>11366</v>
       </c>
     </row>
     <row r="493">
@@ -10784,7 +10784,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>809.3656111111111</v>
+        <v>16188</v>
       </c>
     </row>
     <row r="494">
@@ -10805,7 +10805,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>927.632304526749</v>
+        <v>25047</v>
       </c>
     </row>
     <row r="495">
@@ -10826,7 +10826,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>996.673888888889</v>
+        <v>17941</v>
       </c>
     </row>
     <row r="496">
@@ -10847,7 +10847,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>967.7132716049382</v>
+        <v>17419</v>
       </c>
     </row>
     <row r="497">
@@ -10868,7 +10868,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>523.1990972222222</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="498">
@@ -10889,7 +10889,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>1119.144583333333</v>
+        <v>17907</v>
       </c>
     </row>
     <row r="499">
@@ -10910,7 +10910,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>361.7975816993464</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="500">
@@ -10931,7 +10931,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>360.7814074074074</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="501">
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1077.616805555556</v>
+        <v>17242</v>
       </c>
     </row>
     <row r="502">
@@ -10973,7 +10973,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>618.9063131313131</v>
+        <v>13616</v>
       </c>
     </row>
     <row r="503">
@@ -10994,7 +10994,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>777.8641358024691</v>
+        <v>14002</v>
       </c>
     </row>
     <row r="504">
@@ -11015,7 +11015,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>742.0462393162394</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="505">
@@ -11036,7 +11036,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>815.8992777777778</v>
+        <v>16318</v>
       </c>
     </row>
     <row r="506">
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>663.1738624338624</v>
+        <v>13927</v>
       </c>
     </row>
     <row r="507">
@@ -11078,7 +11078,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>650.9523703703704</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="508">
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>948.445111111111</v>
+        <v>14227</v>
       </c>
     </row>
     <row r="509">
@@ -11120,7 +11120,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>830.1054444444445</v>
+        <v>8302</v>
       </c>
     </row>
     <row r="510">
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>774.1788888888889</v>
+        <v>14710</v>
       </c>
     </row>
     <row r="511">
@@ -11162,7 +11162,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>761.4534126984128</v>
+        <v>10661</v>
       </c>
     </row>
     <row r="512">
@@ -11183,7 +11183,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>753.7547619047619</v>
+        <v>10553</v>
       </c>
     </row>
     <row r="513">
@@ -11204,7 +11204,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>738.5374814814814</v>
+        <v>11079</v>
       </c>
     </row>
     <row r="514">
@@ -11225,7 +11225,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>552.1454166666667</v>
+        <v>8835</v>
       </c>
     </row>
     <row r="515">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>578.9576984126984</v>
+        <v>8106</v>
       </c>
     </row>
     <row r="516">
@@ -11267,7 +11267,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>598.8472839506172</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="517">
@@ -11288,7 +11288,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>479.1057516339869</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="518">
@@ -11309,7 +11309,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>608.5388333333334</v>
+        <v>12171</v>
       </c>
     </row>
     <row r="519">
@@ -11330,7 +11330,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>719.7187242798353</v>
+        <v>19433</v>
       </c>
     </row>
     <row r="520">
@@ -11351,7 +11351,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>719.3169135802469</v>
+        <v>12948</v>
       </c>
     </row>
     <row r="521">
@@ -11372,7 +11372,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>712.6969135802469</v>
+        <v>12829</v>
       </c>
     </row>
     <row r="522">
@@ -11393,7 +11393,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>374.6003472222222</v>
+        <v>5994</v>
       </c>
     </row>
     <row r="523">
@@ -11414,7 +11414,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>836.1190972222222</v>
+        <v>13378</v>
       </c>
     </row>
     <row r="524">
@@ -11435,7 +11435,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>267.2766013071895</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="525">
@@ -11456,7 +11456,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>265.3745185185185</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="526">
@@ -11477,7 +11477,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>782.8442361111112</v>
+        <v>12526</v>
       </c>
     </row>
     <row r="527">
@@ -11498,7 +11498,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>497.7113131313131</v>
+        <v>10950</v>
       </c>
     </row>
     <row r="528">
@@ -11519,7 +11519,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>578.5427160493828</v>
+        <v>10414</v>
       </c>
     </row>
     <row r="529">
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>611.7886324786325</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="530">
@@ -11561,7 +11561,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>625.7565555555556</v>
+        <v>12516</v>
       </c>
     </row>
     <row r="531">
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>542.9007936507936</v>
+        <v>11401</v>
       </c>
     </row>
     <row r="532">
@@ -11603,7 +11603,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>462.6097037037037</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="533">
@@ -11624,7 +11624,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>716.0371851851852</v>
+        <v>10741</v>
       </c>
     </row>
     <row r="534">
@@ -11645,7 +11645,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>584.7326666666667</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="535">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>548.0133333333333</v>
+        <v>10413</v>
       </c>
     </row>
     <row r="536">
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>561.4626984126984</v>
+        <v>7861</v>
       </c>
     </row>
     <row r="537">
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>588.8123015873016</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="538">
@@ -11729,7 +11729,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>577.8148888888888</v>
+        <v>8668</v>
       </c>
     </row>
     <row r="539">
@@ -11750,7 +11750,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>423.5253472222223</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="540">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>459.1810317460317</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="541">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>477.1091358024691</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="542">
@@ -11813,7 +11813,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>357.6005882352941</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="543">
@@ -11834,7 +11834,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>478.6121666666667</v>
+        <v>9573</v>
       </c>
     </row>
     <row r="544">
@@ -11855,7 +11855,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>525.4826748971193</v>
+        <v>14189</v>
       </c>
     </row>
     <row r="545">
@@ -11876,7 +11876,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>519.3667283950617</v>
+        <v>9349</v>
       </c>
     </row>
     <row r="546">
@@ -11897,7 +11897,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>510.9478395061728</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="547">
@@ -11918,7 +11918,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>297.8886805555555</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="548">
@@ -11939,7 +11939,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>676.9615972222223</v>
+        <v>10832</v>
       </c>
     </row>
     <row r="549">
@@ -11960,7 +11960,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>199.8843137254902</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="550">
@@ -11981,7 +11981,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>201.2342222222222</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="551">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>586.3685416666667</v>
+        <v>9382</v>
       </c>
     </row>
     <row r="552">
@@ -12023,7 +12023,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>291.9401515151515</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="553">
@@ -12044,7 +12044,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>328.797962962963</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="554">
@@ -12065,7 +12065,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>419.3024786324787</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="555">
@@ -12086,7 +12086,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>367.4546111111111</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="556">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>332.6855026455027</v>
+        <v>6987</v>
       </c>
     </row>
     <row r="557">
@@ -12128,7 +12128,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>288.5856296296296</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="558">
@@ -12149,7 +12149,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>397.5857777777778</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="559">
@@ -12170,7 +12170,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>348.9333333333333</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="560">
@@ -12191,7 +12191,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>385.098538011696</v>
+        <v>7317</v>
       </c>
     </row>
     <row r="561">
@@ -12212,7 +12212,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>373.1196825396826</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="562">
@@ -12233,7 +12233,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>395.4031746031746</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="563">
@@ -12254,7 +12254,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>368.9572592592592</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="564">
@@ -12275,7 +12275,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>303.8233333333333</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="565">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>342.9387301587302</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="566">
@@ -12317,7 +12317,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>285.3396913580247</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="567">
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>237.4269281045752</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="568">
@@ -12359,7 +12359,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>320.5387222222222</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="569">
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>304.2271604938272</v>
+        <v>8215</v>
       </c>
     </row>
     <row r="570">
@@ -12401,7 +12401,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>321.2695061728396</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="571">
@@ -12422,7 +12422,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>306.606975308642</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="572">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>215.0971527777778</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="573">
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>452.5422222222222</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="574">
@@ -12485,7 +12485,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>141.2845751633987</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="575">
@@ -12506,7 +12506,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>131.3218518518518</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="576">
@@ -12527,7 +12527,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>367.3216666666667</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="577">
@@ -12548,7 +12548,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>421.3446464646465</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="578">
@@ -12569,7 +12569,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>401.590061728395</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="579">
@@ -12590,7 +12590,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>647.8638461538461</v>
+        <v>8423</v>
       </c>
     </row>
     <row r="580">
@@ -12611,7 +12611,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>458.8695</v>
+        <v>9178</v>
       </c>
     </row>
     <row r="581">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>482.3303703703704</v>
+        <v>10129</v>
       </c>
     </row>
     <row r="582">
@@ -12653,7 +12653,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>416.5682222222222</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="583">
@@ -12674,7 +12674,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>542.1308888888889</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="584">
@@ -12695,7 +12695,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>450.6573333333334</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="585">
@@ -12716,7 +12716,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>508.5730409356726</v>
+        <v>9663</v>
       </c>
     </row>
     <row r="586">
@@ -12737,7 +12737,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>559.0922222222222</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="587">
@@ -12758,7 +12758,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>591.7548412698412</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="588">
@@ -12779,7 +12779,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>574.398962962963</v>
+        <v>8616</v>
       </c>
     </row>
     <row r="589">
@@ -12800,7 +12800,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>488.8360416666667</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="590">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>535.5353968253969</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="591">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>427.2987654320987</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="592">
@@ -12863,7 +12863,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>336.8226797385621</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="593">
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>504.8645555555555</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="594">
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>363.579012345679</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="595">
@@ -12926,7 +12926,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>373.4477777777778</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="596">
@@ -12947,7 +12947,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>439.3482098765433</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="597">
@@ -12968,7 +12968,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>331.8688194444445</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="598">
@@ -12989,7 +12989,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>692.0947916666667</v>
+        <v>11074</v>
       </c>
     </row>
     <row r="599">
@@ -13010,7 +13010,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>231.1449019607843</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="600">
@@ -13031,7 +13031,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>192.2154074074074</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="601">
@@ -13052,7 +13052,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>491.8017361111111</v>
+        <v>7869</v>
       </c>
     </row>
   </sheetData>
